--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H2">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N2">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O2">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P2">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q2">
-        <v>61.43068432013133</v>
+        <v>58.5965512771421</v>
       </c>
       <c r="R2">
-        <v>552.8761588811821</v>
+        <v>527.368961494279</v>
       </c>
       <c r="S2">
-        <v>0.004141886043326207</v>
+        <v>0.004904965187099045</v>
       </c>
       <c r="T2">
-        <v>0.004141886043326209</v>
+        <v>0.004904965187099044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H3">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>54.332227</v>
       </c>
       <c r="O3">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P3">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q3">
-        <v>45.50738747249433</v>
+        <v>36.00550199051344</v>
       </c>
       <c r="R3">
-        <v>409.566487252449</v>
+        <v>324.049517914621</v>
       </c>
       <c r="S3">
-        <v>0.003068277931893291</v>
+        <v>0.003013927099091681</v>
       </c>
       <c r="T3">
-        <v>0.003068277931893291</v>
+        <v>0.003013927099091681</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H4">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N4">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O4">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P4">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q4">
-        <v>15.241867357398</v>
+        <v>14.38987751864278</v>
       </c>
       <c r="R4">
-        <v>137.176806216582</v>
+        <v>129.508897667785</v>
       </c>
       <c r="S4">
-        <v>0.001027663591583137</v>
+        <v>0.001204539290063906</v>
       </c>
       <c r="T4">
-        <v>0.001027663591583138</v>
+        <v>0.001204539290063906</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H5">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N5">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O5">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P5">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q5">
-        <v>202.739230299333</v>
+        <v>89.05144780732266</v>
       </c>
       <c r="R5">
-        <v>1824.653072693997</v>
+        <v>801.4630302659039</v>
       </c>
       <c r="S5">
-        <v>0.01366943568519423</v>
+        <v>0.007454265512825054</v>
       </c>
       <c r="T5">
-        <v>0.01366943568519424</v>
+        <v>0.007454265512825053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J6">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N6">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O6">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P6">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q6">
-        <v>2271.053369306425</v>
+        <v>2737.95985922587</v>
       </c>
       <c r="R6">
-        <v>20439.48032375783</v>
+        <v>24641.63873303283</v>
       </c>
       <c r="S6">
-        <v>0.1531228954728846</v>
+        <v>0.2291875119008282</v>
       </c>
       <c r="T6">
-        <v>0.1531228954728847</v>
+        <v>0.2291875119008282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J7">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>54.332227</v>
       </c>
       <c r="O7">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P7">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q7">
         <v>1682.379201722041</v>
@@ -883,10 +883,10 @@
         <v>15141.41281549837</v>
       </c>
       <c r="S7">
-        <v>0.1134322857105348</v>
+        <v>0.1408275954145636</v>
       </c>
       <c r="T7">
-        <v>0.1134322857105348</v>
+        <v>0.1408275954145635</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J8">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N8">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O8">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P8">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q8">
-        <v>563.4821522767361</v>
+        <v>672.3758679734756</v>
       </c>
       <c r="R8">
-        <v>5071.339370490624</v>
+        <v>6051.38281176128</v>
       </c>
       <c r="S8">
-        <v>0.03799207005437175</v>
+        <v>0.05628283837827004</v>
       </c>
       <c r="T8">
-        <v>0.03799207005437176</v>
+        <v>0.05628283837827004</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J9">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N9">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O9">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P9">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q9">
-        <v>7495.140533718656</v>
+        <v>4160.983610608982</v>
       </c>
       <c r="R9">
-        <v>67456.2648034679</v>
+        <v>37448.85249548083</v>
       </c>
       <c r="S9">
-        <v>0.5053503524004285</v>
+        <v>0.3483051358704837</v>
       </c>
       <c r="T9">
-        <v>0.5053503524004286</v>
+        <v>0.3483051358704836</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H10">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N10">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O10">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P10">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q10">
-        <v>432.2634414108236</v>
+        <v>699.7535697165483</v>
       </c>
       <c r="R10">
-        <v>3890.370972697413</v>
+        <v>6297.782127448935</v>
       </c>
       <c r="S10">
-        <v>0.02914481475885045</v>
+        <v>0.0585745547169573</v>
       </c>
       <c r="T10">
-        <v>0.02914481475885045</v>
+        <v>0.0585745547169573</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H11">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>54.332227</v>
       </c>
       <c r="O11">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P11">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q11">
-        <v>320.2174961288816</v>
+        <v>429.9737441566184</v>
       </c>
       <c r="R11">
-        <v>2881.957465159935</v>
+        <v>3869.763697409565</v>
       </c>
       <c r="S11">
-        <v>0.021590258886477</v>
+        <v>0.03599198588462912</v>
       </c>
       <c r="T11">
-        <v>0.021590258886477</v>
+        <v>0.03599198588462912</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H12">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N12">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O12">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P12">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q12">
-        <v>107.250995334868</v>
+        <v>171.8423344375583</v>
       </c>
       <c r="R12">
-        <v>965.2589580138122</v>
+        <v>1546.581009938025</v>
       </c>
       <c r="S12">
-        <v>0.007231262448508312</v>
+        <v>0.01438447570232438</v>
       </c>
       <c r="T12">
-        <v>0.007231262448508313</v>
+        <v>0.01438447570232438</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H13">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N13">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O13">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P13">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q13">
-        <v>1426.595818817078</v>
+        <v>1063.44259403384</v>
       </c>
       <c r="R13">
-        <v>12839.3623693537</v>
+        <v>9570.98334630456</v>
       </c>
       <c r="S13">
-        <v>0.09618641525517922</v>
+        <v>0.08901801878311313</v>
       </c>
       <c r="T13">
-        <v>0.09618641525517924</v>
+        <v>0.08901801878311315</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H14">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.44779533333334</v>
+        <v>29.47402433333333</v>
       </c>
       <c r="N14">
-        <v>73.34338600000001</v>
+        <v>88.422073</v>
       </c>
       <c r="O14">
-        <v>0.1890645123346783</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="P14">
-        <v>0.1890645123346784</v>
+        <v>0.295877356230023</v>
       </c>
       <c r="Q14">
-        <v>39.37658077714978</v>
+        <v>38.35173800798022</v>
       </c>
       <c r="R14">
-        <v>354.389226994348</v>
+        <v>345.165642071822</v>
       </c>
       <c r="S14">
-        <v>0.002654916059617078</v>
+        <v>0.003210324425138439</v>
       </c>
       <c r="T14">
-        <v>0.002654916059617078</v>
+        <v>0.003210324425138438</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H15">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>54.332227</v>
       </c>
       <c r="O15">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="P15">
-        <v>0.1400575643155068</v>
+        <v>0.1818061388681701</v>
       </c>
       <c r="Q15">
-        <v>29.16987395793177</v>
+        <v>23.56578244093089</v>
       </c>
       <c r="R15">
-        <v>262.528865621386</v>
+        <v>212.092041968378</v>
       </c>
       <c r="S15">
-        <v>0.001966741786601734</v>
+        <v>0.001972630469885796</v>
       </c>
       <c r="T15">
-        <v>0.001966741786601734</v>
+        <v>0.001972630469885796</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H16">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.065862</v>
+        <v>7.238098333333333</v>
       </c>
       <c r="N16">
-        <v>18.197586</v>
+        <v>21.714295</v>
       </c>
       <c r="O16">
-        <v>0.0469097202951384</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="P16">
-        <v>0.04690972029513841</v>
+        <v>0.07266023040422054</v>
       </c>
       <c r="Q16">
-        <v>9.769915927771999</v>
+        <v>9.418247329125556</v>
       </c>
       <c r="R16">
-        <v>87.92924334994798</v>
+        <v>84.76422596213</v>
       </c>
       <c r="S16">
-        <v>0.0006587242006752033</v>
+        <v>0.0007883770335622135</v>
       </c>
       <c r="T16">
-        <v>0.0006587242006752034</v>
+        <v>0.0007883770335622134</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H17">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.684877</v>
+        <v>44.79281599999999</v>
       </c>
       <c r="N17">
-        <v>242.054631</v>
+        <v>134.378448</v>
       </c>
       <c r="O17">
-        <v>0.6239682030546764</v>
+        <v>0.4496562744975863</v>
       </c>
       <c r="P17">
-        <v>0.6239682030546765</v>
+        <v>0.4496562744975864</v>
       </c>
       <c r="Q17">
-        <v>129.954236501362</v>
+        <v>58.28462121234134</v>
       </c>
       <c r="R17">
-        <v>1169.588128512258</v>
+        <v>524.561590911072</v>
       </c>
       <c r="S17">
-        <v>0.008761999713874482</v>
+        <v>0.004878854331164522</v>
       </c>
       <c r="T17">
-        <v>0.008761999713874483</v>
+        <v>0.004878854331164522</v>
       </c>
     </row>
   </sheetData>
